--- a/view/object/xlsx/add.xlsx
+++ b/view/object/xlsx/add.xlsx
@@ -1,72 +1,495 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="600" yWindow="600" windowWidth="15975" windowHeight="6600"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>ক্যানাপি | canopy</t>
-  </si>
-  <si>
-    <t>কেপ্‌টা | captor</t>
-  </si>
-  <si>
-    <t>কেরাভেন্‌ | caravan</t>
-  </si>
-  <si>
-    <t>কারেস্‌ | caress</t>
-  </si>
-  <si>
-    <t>কেরাট্‌ | caret</t>
-  </si>
-  <si>
-    <t>কেসাক্‌ | cassock</t>
-  </si>
-  <si>
-    <t>কেটাপুল্‌ট্‌ | catapult</t>
-  </si>
-  <si>
-    <t>কেইটা | cater</t>
-  </si>
-  <si>
-    <t>কেভান্‌ | cavern</t>
-  </si>
-  <si>
-    <t>সীস্‌ | cease</t>
-  </si>
-  <si>
-    <t>চ্যাপল্‌ | chapel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> | charitable</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> | charity</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="156">
+  <si>
+    <t>atop | এটোপ্‌</t>
+  </si>
+  <si>
+    <t>juvenile | জুভিনাইল্‌</t>
+  </si>
+  <si>
+    <t>sanctuary | সেংচুরি</t>
+  </si>
+  <si>
+    <t>limp | লিম্প</t>
+  </si>
+  <si>
+    <t>duck | বাদ</t>
+  </si>
+  <si>
+    <t>bailout | বেইল আউট্‌</t>
+  </si>
+  <si>
+    <t>resonate | বাদ</t>
+  </si>
+  <si>
+    <t>undaunted | আন্‌ডোন্‌টেড্‌</t>
+  </si>
+  <si>
+    <t>fiddle/violin | ফিডল্‌/ভায়ালিন্‌</t>
+  </si>
+  <si>
+    <t>waylay | ওয়েলেই্‌</t>
+  </si>
+  <si>
+    <t>medic | মেডিক্‌</t>
+  </si>
+  <si>
+    <t>consignment | কোন্‌সাইন্‌মেন্‌ট্‌</t>
+  </si>
+  <si>
+    <t>breakwater | ব্রেইক ওয়াটা</t>
+  </si>
+  <si>
+    <t>spaniard | স্পেনিয়াড্‌</t>
+  </si>
+  <si>
+    <t>sail | সেইল্‌</t>
+  </si>
+  <si>
+    <t>bloodshed | ব্লাড্‌শেড্‌</t>
+  </si>
+  <si>
+    <t>decay | ডিকে</t>
+  </si>
+  <si>
+    <t>cider | সাইডা</t>
+  </si>
+  <si>
+    <t>gale | গেইল্‌</t>
+  </si>
+  <si>
+    <t>senor | সেনো</t>
+  </si>
+  <si>
+    <t>cough | বাদ</t>
+  </si>
+  <si>
+    <t>leap | লিপ্‌</t>
+  </si>
+  <si>
+    <t>revolt | রিভোল্ট্‌</t>
+  </si>
+  <si>
+    <t>yell | ইএল্‌</t>
+  </si>
+  <si>
+    <t>pansy | পেন্‌জি</t>
+  </si>
+  <si>
+    <t>elocution | এলাকিউশন্‌</t>
+  </si>
+  <si>
+    <t>furry | ফারি</t>
+  </si>
+  <si>
+    <t>haystack | হেইস্‌টাক্‌</t>
+  </si>
+  <si>
+    <t>maze | মেইজ্‌</t>
+  </si>
+  <si>
+    <t>glitch | গ্লিচ্‌</t>
+  </si>
+  <si>
+    <t>flock | ফ্লোক্‌</t>
+  </si>
+  <si>
+    <t>deduct | ডিডাক্‌ট্‌</t>
+  </si>
+  <si>
+    <t>mahogany | মেহগনি</t>
+  </si>
+  <si>
+    <t>raccoon | রেকুন্‌</t>
+  </si>
+  <si>
+    <t>deny | ডিনাই</t>
+  </si>
+  <si>
+    <t>deject/discourage | ডিজেক্ট্‌/ডিস্‌কারেজ্‌</t>
+  </si>
+  <si>
+    <t>surpass | সাপাস্‌</t>
+  </si>
+  <si>
+    <t>elusive | ইলুসিভ্‌</t>
+  </si>
+  <si>
+    <t>forfeit  | ফোফিট্‌</t>
+  </si>
+  <si>
+    <t>chuckle | চাক্‌ল্‌</t>
+  </si>
+  <si>
+    <t>clutter | ক্লাটা</t>
+  </si>
+  <si>
+    <t>inferior | ইন্‌ফিরিয়া</t>
+  </si>
+  <si>
+    <t>sexagenarian | সেস্কসাজেনেরিয়ান্‌</t>
+  </si>
+  <si>
+    <t>effortlessly | ইফোরট্‌লেস্‌লি</t>
+  </si>
+  <si>
+    <t>essentially  | এসেন্‌শিয়ালি</t>
+  </si>
+  <si>
+    <t>reputation | রেপুটেইশন্‌</t>
+  </si>
+  <si>
+    <t>diverse/different/various | ডাইভাস্‌/ডিফ্‌রেন্‌ট্‌/ভেরিয়াস্‌</t>
+  </si>
+  <si>
+    <t>elucidate | ইলুসিডেইট্‌</t>
+  </si>
+  <si>
+    <t>antecedent/previous/former/prior | এন্‌টিসিডেন্‌ট্‌</t>
+  </si>
+  <si>
+    <t>ruminate/chew/cud | রুমিনেইট্‌</t>
+  </si>
+  <si>
+    <t>expound/explain/illustrate | এক্সপাউন্‌ড্‌</t>
+  </si>
+  <si>
+    <t>salute/greet | সেলুড/গ্রিট্‌</t>
+  </si>
+  <si>
+    <t>endeavor/attempt/effort | এন্‌ডেভা</t>
+  </si>
+  <si>
+    <t>futuristic  | ফিউচারিস্‌টিক্‌</t>
+  </si>
+  <si>
+    <t>ecstasy/joy | এক্‌স্‌টাসি</t>
+  </si>
+  <si>
+    <t>exultant  | এক্‌জোল্‌টেন্‌ট্‌</t>
+  </si>
+  <si>
+    <t>euphoric  | ইউফোরিক্‌</t>
+  </si>
+  <si>
+    <t>manipulation | মেনিপিউলেশন্‌</t>
+  </si>
+  <si>
+    <t>brand/mark | ব্রান্ড/মার্ক</t>
+  </si>
+  <si>
+    <t>probably | প্রবাব্‌লি</t>
+  </si>
+  <si>
+    <t>consistency | কোন্‌সিস্‌টেন্‌সি</t>
+  </si>
+  <si>
+    <t>thrive/improve | থ্রাইভ্‌</t>
+  </si>
+  <si>
+    <t>engine | ইন্‌জিন্‌</t>
+  </si>
+  <si>
+    <t>piece | পিস্‌</t>
+  </si>
+  <si>
+    <t>hearse | হাস্‌</t>
+  </si>
+  <si>
+    <t>superfluous/unnecessary/insufficient | সুপাফ্লুয়েস্‌</t>
+  </si>
+  <si>
+    <t>shyly/timidly | শাইলি</t>
+  </si>
+  <si>
+    <t>pier | পিয়া</t>
+  </si>
+  <si>
+    <t>annotation | এনাটেইশন্‌</t>
+  </si>
+  <si>
+    <t>commemorative | কামামোরেটিভ্‌</t>
+  </si>
+  <si>
+    <t>plasticine | প্লাস্টিসিন্‌</t>
+  </si>
+  <si>
+    <t>fuss | ফাস্‌</t>
+  </si>
+  <si>
+    <t>burglar | বাগ্‌লা</t>
+  </si>
+  <si>
+    <t>mend | মেন্‌ড্‌</t>
+  </si>
+  <si>
+    <t>bump | বাম্প্‌</t>
+  </si>
+  <si>
+    <t>matron | মেইট্রেন্‌</t>
+  </si>
+  <si>
+    <t>tidily | টাইডিলি</t>
+  </si>
+  <si>
+    <t>alibi | এলিবাই</t>
+  </si>
+  <si>
+    <t>fabulous | ফেবিউলাস্‌</t>
+  </si>
+  <si>
+    <t>nosey/nosy | নৌজি</t>
+  </si>
+  <si>
+    <t>lamp | লেম্প্‌</t>
+  </si>
+  <si>
+    <t>accent | এক্‌সেন্‌ট্‌</t>
+  </si>
+  <si>
+    <t>riddle | রিডল্‌</t>
+  </si>
+  <si>
+    <t>scar | স্কা</t>
+  </si>
+  <si>
+    <t>crave | ক্রেইভ্‌</t>
+  </si>
+  <si>
+    <t>variety/difference/diversity | ডিফ্‌রেন্‌স্‌</t>
+  </si>
+  <si>
+    <t>susceptible/capable/able/efficient | সাসেপ্‌টিবল্‌</t>
+  </si>
+  <si>
+    <t>crooked | ক্রুকেড্‌</t>
+  </si>
+  <si>
+    <t>elongate/expand | ইলোংগেইট্‌</t>
+  </si>
+  <si>
+    <t>realm/kingdom/reign/dominion | রেল্‌ম্‌</t>
+  </si>
+  <si>
+    <t>dominion | ডোমিনিওন্‌</t>
+  </si>
+  <si>
+    <t>dualism | ডুয়েলিস্‌ম্‌</t>
+  </si>
+  <si>
+    <t>obligatory/compulsory/necessary/required | ওব্‌লিগেইটোরি</t>
+  </si>
+  <si>
+    <t>taunt | টোন্‌ট্‌</t>
+  </si>
+  <si>
+    <t>twig | টোয়িগ্‌</t>
+  </si>
+  <si>
+    <t>stiff | স্টিফ্‌</t>
+  </si>
+  <si>
+    <t>adruptly/suddenly | এব্‌রাপ্‌ট্‌লি</t>
+  </si>
+  <si>
+    <t>feature | ফীচা</t>
+  </si>
+  <si>
+    <t>contiguous | কোন্‌টিগিউয়াস্‌</t>
+  </si>
+  <si>
+    <t>recipe | রেসিপি</t>
+  </si>
+  <si>
+    <t>tuft/bunch/cluster | টাফ্‌ট্‌</t>
+  </si>
+  <si>
+    <t>tropic | ট্রোপিক্‌</t>
+  </si>
+  <si>
+    <t>assemble | এসেম্‌বোল্‌</t>
+  </si>
+  <si>
+    <t>tow | টৌ</t>
+  </si>
+  <si>
+    <t>relate | রিলেইট</t>
+  </si>
+  <si>
+    <t>infinite | ইন্‌ফিনিট্‌</t>
+  </si>
+  <si>
+    <t>confidential | কোন্‌ফিডেন্‌শোল্‌</t>
+  </si>
+  <si>
+    <t>stress | স্ট্রেস্‌</t>
+  </si>
+  <si>
+    <t>gimmick | গিমিক্‌</t>
+  </si>
+  <si>
+    <t>crisp | ক্রিস্‌প্‌</t>
+  </si>
+  <si>
+    <t>nudge  | নাজ্‌</t>
+  </si>
+  <si>
+    <t>vegan  | ভিগান্‌</t>
+  </si>
+  <si>
+    <t>inert/inactive | ইনাট্‌</t>
+  </si>
+  <si>
+    <t>godforsaken | গোড্‌ফোসেকেন্‌</t>
+  </si>
+  <si>
+    <t>goof  | গুফ্‌</t>
+  </si>
+  <si>
+    <t>delirium | ডিলিরিয়াম্‌</t>
+  </si>
+  <si>
+    <t>bicker | বিকা</t>
+  </si>
+  <si>
+    <t>crony/bosom | ক্রৌনি/বোজম্‌</t>
+  </si>
+  <si>
+    <t>periphery  | পেরিফেরি</t>
+  </si>
+  <si>
+    <t>urgency/emergency | আজেন্‌সি/ইমাজেন্‌সি</t>
+  </si>
+  <si>
+    <t>scratch | স্ক্রেচ্‌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matriculation/matric(abbreviation of matriculation) | ম্যাট্রিক </t>
+  </si>
+  <si>
+    <t>flirt | ফ্লাট্‌</t>
+  </si>
+  <si>
+    <t>ogle | ওউগ্‌ল্‌</t>
+  </si>
+  <si>
+    <t>soya | সোয়েয়া</t>
+  </si>
+  <si>
+    <t>poach | পৌচ্‌</t>
+  </si>
+  <si>
+    <t>poaching | পৌচিং</t>
+  </si>
+  <si>
+    <t>antelope | এন্‌টালৌপ্‌</t>
+  </si>
+  <si>
+    <t>fortnight | ফোট্‌নাইট্‌</t>
+  </si>
+  <si>
+    <t>mercenary | মাছেনারি</t>
+  </si>
+  <si>
+    <t>invigilator | ইন্‌ভিজিলেইটা</t>
+  </si>
+  <si>
+    <t>implausible/unimaginable/unlikely | ইম্‌প্লোসিবোল্‌</t>
+  </si>
+  <si>
+    <t>falter | ফোল্‌টা</t>
+  </si>
+  <si>
+    <t>dangle | ড্যাংগোল্‌</t>
+  </si>
+  <si>
+    <t>prodigy | প্রডিজি</t>
+  </si>
+  <si>
+    <t>equal/neutral | ইকুয়াল/নিউট্রাল্‌</t>
+  </si>
+  <si>
+    <t>vigor | ভিগা</t>
+  </si>
+  <si>
+    <t>hymen/maidenhead | হাইমেন্‌/মেইডেন হেড্‌</t>
+  </si>
+  <si>
+    <t>presumption | প্রিজাম্‌প্‌শোন্‌</t>
+  </si>
+  <si>
+    <t>sorely | সোলি</t>
+  </si>
+  <si>
+    <t>inertia/sloth | ইনাশা</t>
+  </si>
+  <si>
+    <t>grease | গ্রীস্‌</t>
+  </si>
+  <si>
+    <t>abruptly | এব্‌রাপ্‌ট্‌লি</t>
+  </si>
+  <si>
+    <t>handicap | হেন্ডিকাপ্‌</t>
+  </si>
+  <si>
+    <t>returnee | রিটানী</t>
+  </si>
+  <si>
+    <t>arrear | এরিয়া</t>
+  </si>
+  <si>
+    <t>simmer | সীমা</t>
+  </si>
+  <si>
+    <t>longing  | বাদ</t>
+  </si>
+  <si>
+    <t>protrude | প্রোট্রুড্‌</t>
+  </si>
+  <si>
+    <t>abyss | এবিস্‌</t>
+  </si>
+  <si>
+    <t>excruciate/torture | এক্‌স্‌ক্রুসিয়েইট্‌</t>
+  </si>
+  <si>
+    <t>veer | ভিয়া</t>
+  </si>
+  <si>
+    <t>nomad | নৌমেড্‌</t>
+  </si>
+  <si>
+    <t>bias/influence | বাইয়াস্‌/ইনফ্লুয়েন্‌স্‌</t>
+  </si>
+  <si>
+    <t>ax | এক্স</t>
+  </si>
+  <si>
+    <t>remould | রিমৌল্ড্‌</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -77,28 +500,29 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -388,17 +812,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -465,18 +889,743 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>